--- a/biology/Botanique/Aganisia_cyanea/Aganisia_cyanea.xlsx
+++ b/biology/Botanique/Aganisia_cyanea/Aganisia_cyanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aganisia cyanea est une espèce végétale de la famille des Orchidaceae originaire d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acacallis cyanea Lindl. (1853) (Basionyme)
 Warrea cinerea Benth. (1881)
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée épiphyte possède un pseudobulbe d'environ 5 cm de diamètre[2] d'où partent des feuilles de 20 cm de long pour 7 cm de large[2]. Les fleurs, parfumées, sont portées par une inflorescence rgroupant 2 à 7 fleurs[2] d'environ 4 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée épiphyte possède un pseudobulbe d'environ 5 cm de diamètre d'où partent des feuilles de 20 cm de long pour 7 cm de large. Les fleurs, parfumées, sont portées par une inflorescence rgroupant 2 à 7 fleurs d'environ 4 cm.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce originaire du Brésil, de Colombie et du Venezuela pousse dans la nature en climat chaud et humide à une altitude comprise entre 0 et 400 m[2].
-Sa culture demande un minimum de 16 °C[2] et une luminosité de 10 000 à 18 000 lux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce originaire du Brésil, de Colombie et du Venezuela pousse dans la nature en climat chaud et humide à une altitude comprise entre 0 et 400 m.
+Sa culture demande un minimum de 16 °C et une luminosité de 10 000 à 18 000 lux.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aganisia cyaneaCharles Lemaire :"Flore des serres et des jardins de l'Europe"(1845)
